--- a/Intro materials and keys/Tentative Schedule.xlsx
+++ b/Intro materials and keys/Tentative Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/IntroEconometrics/Introduction Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/IntroEconometrics/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E1C757-74EC-0E4F-A5B7-AE468B9EAAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A691B1-CCC9-0E43-B1B7-854DCEFB66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15240" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDCCABB-A2A0-3F43-AD47-2918896FEB07}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,12 +743,12 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>45617</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
+      <c r="B28" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -756,8 +756,8 @@
         <f t="shared" si="0"/>
         <v>45622</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/Intro materials and keys/Tentative Schedule.xlsx
+++ b/Intro materials and keys/Tentative Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/IntroEconometrics/Intro materials and keys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A691B1-CCC9-0E43-B1B7-854DCEFB66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77BDC8F-DD52-3E4E-AA45-34ADCE0749F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15240" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,13 +91,13 @@
     <t>Sampling/Confidence Intervals and Hypothesis Testing</t>
   </si>
   <si>
-    <t>Examples of Seminal Research</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
     <t>Lecture Date</t>
+  </si>
+  <si>
+    <t>Final Project Office Hours in Class</t>
   </si>
 </sst>
 </file>
@@ -194,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDCCABB-A2A0-3F43-AD47-2918896FEB07}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>45608</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>45610</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
